--- a/src/Template_Penyata_Akaun_HR_2023.xlsx
+++ b/src/Template_Penyata_Akaun_HR_2023.xlsx
@@ -390,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -455,9 +455,7 @@
     <xf borderId="16" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -478,7 +476,6 @@
     <xf borderId="16" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -961,8 +958,8 @@
       <c r="B21" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="20"/>
       <c r="F21" s="24"/>
       <c r="G21" s="6"/>
@@ -1044,8 +1041,8 @@
       <c r="B27" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="20"/>
       <c r="F27" s="24"/>
       <c r="G27" s="6"/>
@@ -1053,10 +1050,10 @@
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="10"/>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="24">
         <v>0.0</v>
       </c>
@@ -1069,7 +1066,7 @@
       <c r="C29" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="37"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="24">
         <v>0.0</v>
       </c>
@@ -1082,7 +1079,7 @@
       <c r="C30" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="37"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="24">
         <v>0.0</v>
       </c>
@@ -1095,7 +1092,7 @@
       <c r="C31" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="37"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="24">
         <v>0.0</v>
       </c>
@@ -1119,8 +1116,8 @@
       <c r="B33" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="20"/>
       <c r="F33" s="24"/>
       <c r="G33" s="6"/>
@@ -1128,7 +1125,7 @@
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="23"/>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="29">
@@ -1143,7 +1140,7 @@
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="23"/>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="29">
@@ -1158,7 +1155,7 @@
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="23"/>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="29">
@@ -1173,7 +1170,7 @@
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="23"/>
-      <c r="C37" s="38"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="29">
         <v>0.0</v>
       </c>
@@ -1186,7 +1183,7 @@
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="23"/>
-      <c r="C38" s="38"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="29">
         <v>0.0</v>
       </c>
@@ -1199,7 +1196,7 @@
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="23"/>
-      <c r="C39" s="38"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="29">
         <v>0.0</v>
       </c>
@@ -1212,8 +1209,8 @@
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="23"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38">
+      <c r="C40" s="37"/>
+      <c r="D40" s="37">
         <v>0.0</v>
       </c>
       <c r="E40" s="27">
@@ -1225,8 +1222,8 @@
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="23"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38">
+      <c r="C41" s="37"/>
+      <c r="D41" s="37">
         <v>0.0</v>
       </c>
       <c r="E41" s="27">
@@ -1249,10 +1246,10 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4"/>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="40">
+      <c r="F43" s="39">
         <f>F20+F32+F26+F42</f>
         <v>1000</v>
       </c>
@@ -1264,26 +1261,26 @@
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="40" t="s">
         <v>23</v>
       </c>
       <c r="G45" s="6"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
       <c r="A46" s="4"/>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="40" t="s">
         <v>24</v>
       </c>
       <c r="G46" s="6"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="42"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="44"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
     </row>
     <row r="48" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
@@ -2239,26 +2236,27 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:F12"/>
+  <mergeCells count="20">
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/src/Template_Penyata_Akaun_HR_2023.xlsx
+++ b/src/Template_Penyata_Akaun_HR_2023.xlsx
@@ -390,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -448,6 +448,9 @@
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -862,10 +865,10 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="24">
-        <v>500.0</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26">
         <v>1000.0</v>
       </c>
       <c r="G14" s="6"/>
@@ -875,79 +878,79 @@
       <c r="B15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="26"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="23"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="24"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="23"/>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="E16" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="F16" s="24"/>
+      <c r="D16" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="25"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="24"/>
+      <c r="D17" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="25"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="E18" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F18" s="24"/>
+      <c r="D18" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="25"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="E19" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F19" s="24"/>
+      <c r="D19" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="25"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34">
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35">
         <f>D16-E16+D17-E17+D18-E18+D19-E19+F14</f>
         <v>1000</v>
       </c>
@@ -958,79 +961,79 @@
       <c r="B21" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="24"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="23"/>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="E22" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F22" s="24"/>
+      <c r="D22" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="25"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="E23" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F23" s="24"/>
+      <c r="D23" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="25"/>
       <c r="G23" s="6"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="E24" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F24" s="24"/>
+      <c r="D24" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="25"/>
       <c r="G24" s="6"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="E25" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F25" s="24"/>
+      <c r="D25" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="25"/>
       <c r="G25" s="6"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34">
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35">
         <f>D23-E23+D24-E24+D25-E25-E22+D22</f>
         <v>0</v>
       </c>
@@ -1041,71 +1044,71 @@
       <c r="B27" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="24"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="6"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="10"/>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F28" s="24"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="25"/>
       <c r="G28" s="6"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="23"/>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F29" s="24"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="25"/>
       <c r="G29" s="6"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="23"/>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F30" s="24"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="25"/>
       <c r="G30" s="6"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="23"/>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F31" s="24"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F31" s="25"/>
       <c r="G31" s="6"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34">
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35">
         <f>-E28-E29-E30-E31</f>
         <v>0</v>
       </c>
@@ -1116,129 +1119,129 @@
       <c r="B33" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="24"/>
+      <c r="F33" s="25"/>
       <c r="G33" s="6"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="23"/>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="E34" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F34" s="24"/>
+      <c r="D34" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E34" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F34" s="25"/>
       <c r="G34" s="6"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="23"/>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="E35" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F35" s="24"/>
+      <c r="D35" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E35" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F35" s="25"/>
       <c r="G35" s="6"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="23"/>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="E36" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F36" s="24"/>
+      <c r="D36" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E36" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F36" s="25"/>
       <c r="G36" s="6"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="23"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="E37" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F37" s="24"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E37" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F37" s="25"/>
       <c r="G37" s="6"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="23"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="E38" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F38" s="24"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E38" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F38" s="25"/>
       <c r="G38" s="6"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="23"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="E39" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F39" s="24"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E39" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F39" s="25"/>
       <c r="G39" s="6"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="23"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="E40" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F40" s="24"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="E40" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="F40" s="25"/>
       <c r="G40" s="6"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="23"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="E41" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F41" s="24"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="E41" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="F41" s="25"/>
       <c r="G41" s="6"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="4"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="34">
+      <c r="B42" s="32"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="35">
         <f>D34-E34+D35-E35+D36-E36+D37-E37+D38-E38+D39-E39+D41-E41+D40-E40</f>
         <v>0</v>
       </c>
@@ -1246,10 +1249,10 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4"/>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="39">
+      <c r="F43" s="40">
         <f>F20+F32+F26+F42</f>
         <v>1000</v>
       </c>
@@ -1261,26 +1264,26 @@
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="41" t="s">
         <v>23</v>
       </c>
       <c r="G45" s="6"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
       <c r="A46" s="4"/>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="41" t="s">
         <v>24</v>
       </c>
       <c r="G46" s="6"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="41"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="43"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="44"/>
     </row>
     <row r="48" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
